--- a/DataGenerator/XLSXS/CharStatData.xlsx
+++ b/DataGenerator/XLSXS/CharStatData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jehee\Documents\GitHub\DG_Project\DataGenerator\XLSXS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D8496DF-9D88-498C-AD91-635F53A58322}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0392411-DC1C-4DA8-A3F4-460C3EBAFE44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9705" yWindow="3975" windowWidth="17370" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CharData" sheetId="1" r:id="rId1"/>
@@ -438,7 +438,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -524,7 +524,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>10000</v>
+        <v>100000</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
